--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GourmetGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BA9933-AFEE-4721-88BE-0199DEAF392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BDA32-C6AE-4E5B-9BC1-BFA8A8186275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>QNr</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Teilen-UI</t>
+  </si>
+  <si>
+    <t>Gesamtes Team</t>
+  </si>
+  <si>
+    <t>Carlo Gliech</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,6 +608,12 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" s="3">
         <v>45590</v>
       </c>
@@ -619,6 +631,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -633,6 +648,9 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -647,6 +665,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -661,6 +682,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -675,6 +699,9 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -689,6 +716,9 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -703,6 +733,9 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -717,6 +750,9 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -731,6 +767,9 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -745,6 +784,9 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -759,6 +801,9 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -773,6 +818,9 @@
       <c r="D14" t="s">
         <v>29</v>
       </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -787,6 +835,9 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -801,8 +852,11 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -815,8 +869,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -829,8 +886,11 @@
       <c r="D18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -842,6 +902,9 @@
       </c>
       <c r="D19" t="s">
         <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GourmetGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BDA32-C6AE-4E5B-9BC1-BFA8A8186275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516D7928-29C1-466D-9719-A73A14B34F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>QNr</t>
   </si>
@@ -78,15 +78,9 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Hochladen</t>
-  </si>
-  <si>
     <t>Upload-UI</t>
   </si>
   <si>
-    <t>Bewertung</t>
-  </si>
-  <si>
     <t>Sternebewertung-UI</t>
   </si>
   <si>
@@ -154,14 +148,133 @@
   </si>
   <si>
     <t>Carlo Gliech</t>
+  </si>
+  <si>
+    <t>Neue Rezepte können hochgeladen werden, und alle erforderlichen Felder werden korrekt gespeichert.</t>
+  </si>
+  <si>
+    <t>Upload soll innerhalb von 5 Sekunden abgeschlossen sein, keine Datenverluste oder unvollständigen Einträge.</t>
+  </si>
+  <si>
+    <t>Benutzer können intuitiv das Upload-Formular ausfüllen und ihre Rezepte hochladen.</t>
+  </si>
+  <si>
+    <t>Formular muss innerhalb von 3 Klicks erreichbar sein, Ladezeit des Formulars unter 2 Sekunden.</t>
+  </si>
+  <si>
+    <t>Benutzer können intuitiv zwischen 1 bis 5 Sterne für Rezepte vergeben.</t>
+  </si>
+  <si>
+    <t>Benutzer können Rezepte bewerten, und die Bewertung wird korrekt gespeichert und angezeigt.</t>
+  </si>
+  <si>
+    <t>Bewertung soll sofort nach dem Speichern sichtbar sein, kein Verlust der Daten.</t>
+  </si>
+  <si>
+    <t>UI soll klar verständlich und innerhalb von 1 Klick benutzbar sein.</t>
+  </si>
+  <si>
+    <t>Benutzer können nach Rezepten basierend auf Namen oder Zutaten suchen.</t>
+  </si>
+  <si>
+    <t>Suchergebnisse sollen innerhalb von 2 Sekunden nach Absendung der Suchanfrage erscheinen.</t>
+  </si>
+  <si>
+    <t>Die Suchleiste ist leicht zugänglich und intuitiv zu bedienen.</t>
+  </si>
+  <si>
+    <t>Suchleiste muss prominent und in einem Schritt nutzbar sein.</t>
+  </si>
+  <si>
+    <t>Benutzer können Zutaten in der Suche korrekt eingeben und Ergebnisse basierend auf den Zutaten erhalten.</t>
+  </si>
+  <si>
+    <t>Ergebnisse sollen innerhalb von 2 Sekunden nach Eingabe erscheinen.</t>
+  </si>
+  <si>
+    <t>Benutzer können einen neuen Account erstellen und dieser wird korrekt in der Datenbank gespeichert.</t>
+  </si>
+  <si>
+    <t>Account-Erstellung darf nicht länger als 30 Sekunden dauern.</t>
+  </si>
+  <si>
+    <t>Benutzer können intuitiv das Formular zur Kontoerstellung ausfüllen.</t>
+  </si>
+  <si>
+    <t>Formular darf nicht länger als 5 Klicks benötigen.</t>
+  </si>
+  <si>
+    <t>Benutzer können sich erfolgreich in ihren Account einloggen.</t>
+  </si>
+  <si>
+    <t>Login-Prozess muss innerhalb von 5 Sekunden abgeschlossen sein.</t>
+  </si>
+  <si>
+    <t>Benutzer können die Login-Maske intuitiv bedienen und ihre Daten korrekt eingeben.</t>
+  </si>
+  <si>
+    <t>Login-UI muss in maximal einem Schritt erreichbar sein.</t>
+  </si>
+  <si>
+    <t>Benutzer können anderen Nutzern folgen und deren Aktivitäten verfolgen.</t>
+  </si>
+  <si>
+    <t>Das Interface für das Folgen anderer Nutzer ist intuitiv bedienbar.</t>
+  </si>
+  <si>
+    <t>Folgen-Funktion soll ohne Verzögerung aktualisiert werden.</t>
+  </si>
+  <si>
+    <t>Die „Folgen“-Schaltfläche muss in einem Schritt zugänglich sein.</t>
+  </si>
+  <si>
+    <t>Benutzer können Rezepte mit einem Lesezeichen versehen, um sie später wiederzufinden.</t>
+  </si>
+  <si>
+    <t>Rezept soll unmittelbar nach dem Bookmarken in der Lesezeichenliste erscheinen.</t>
+  </si>
+  <si>
+    <t>Benutzer können die „Bookmark“-Schaltfläche intuitiv finden und verwenden.</t>
+  </si>
+  <si>
+    <t>Die Schaltfläche darf nicht mehr als 1 Klick benötigen.</t>
+  </si>
+  <si>
+    <t>Benutzer können Rezepte als PDF-Datei teilen.</t>
+  </si>
+  <si>
+    <t>Teilen-Funktion muss innerhalb von 5 Sekunden ausgeführt werden.</t>
+  </si>
+  <si>
+    <t>Teilen-Schaltfläche ist leicht zugänglich und verständlich.</t>
+  </si>
+  <si>
+    <t>Alle Funktionen funktionieren wie geplant</t>
+  </si>
+  <si>
+    <t>Abgeschlossen</t>
+  </si>
+  <si>
+    <t>Josefine Birkner</t>
+  </si>
+  <si>
+    <t>Fehlgeschlagen --&gt; Suchen in der Suchleiste führt zu einer Fehlermeldung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,6 +311,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -224,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}" name="Tabelle1" displayName="Tabelle1" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}" name="Tabelle1" displayName="Tabelle1" ref="A1:K20" totalsRowShown="0">
+  <autoFilter ref="A1:K20" xr:uid="{261F676F-334D-4AB9-B400-0DF06AB32BB9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CA95BA66-DD45-4B97-8D7E-DE788B4D1041}" name="QNr" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00553A90-DC2C-4E81-A851-96058E33DF81}" name="PNr" dataDxfId="0"/>
@@ -540,24 +660,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A237467-03C5-4842-A628-3868DA80565E}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="7.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="93.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -608,11 +729,14 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3">
         <v>45590</v>
@@ -629,10 +753,28 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45582</v>
+      </c>
+      <c r="J3" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -643,13 +785,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45582</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -660,13 +820,28 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45586</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45586</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -677,13 +852,28 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45586</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45586</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -691,16 +881,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45587</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -708,16 +916,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45587</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -725,33 +951,64 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45588</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45587</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -759,16 +1016,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45587</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -776,16 +1045,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45587</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -793,16 +1074,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45587</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -810,107 +1103,232 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45583</v>
+      </c>
+      <c r="J17" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45583</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45586</v>
+      </c>
+      <c r="J19" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45586</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45586</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4 B6 B10:B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Dokumente\Hochschule\Sem_3\Software-Engineering I\GourmetGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516D7928-29C1-466D-9719-A73A14B34F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8166BC-7C7A-45C0-9B30-14AD6FF93CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>QNr</t>
   </si>
@@ -663,25 +663,25 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="93.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -946,7 +946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -974,9 +974,14 @@
       <c r="I9" s="3">
         <v>45588</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1154,7 +1159,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1181,7 +1186,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1251,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1286,7 +1291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>

--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Dokumente\Hochschule\Sem_3\Software-Engineering I\GourmetGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josefine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8166BC-7C7A-45C0-9B30-14AD6FF93CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA8325-E5B6-43E9-B003-777B07283CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>QNr</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Fehlgeschlagen --&gt; Suchen in der Suchleiste führt zu einer Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Fehlgeschlagen --&gt; Erste Bewertung bei Rezept wir nicht direkt aktualisiert, erst bei Neuladen der Seite</t>
   </si>
 </sst>
 </file>
@@ -364,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +666,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +846,9 @@
       <c r="J5" s="3">
         <v>45586</v>
       </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -875,6 +881,9 @@
       <c r="J6" s="3">
         <v>45586</v>
       </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1044,6 +1053,12 @@
       <c r="I11" s="3">
         <v>45587</v>
       </c>
+      <c r="J11" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1073,6 +1088,12 @@
       <c r="I12" s="3">
         <v>45587</v>
       </c>
+      <c r="J12" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1102,6 +1123,12 @@
       <c r="I13" s="3">
         <v>45587</v>
       </c>
+      <c r="J13" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1130,6 +1157,12 @@
       </c>
       <c r="I14" s="3">
         <v>45587</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45587</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">

--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josefine\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Dokumente\Hochschule\Sem_3\Software-Engineering I\GourmetGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA8325-E5B6-43E9-B003-777B07283CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1172DCF9-27EE-4BFE-8D1A-F296148CE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -367,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -513,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,17 +671,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="93.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josefine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA8325-E5B6-43E9-B003-777B07283CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D1E5C-09DF-42F1-B631-C22A4AF2A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <t>Fehlgeschlagen --&gt; Suchen in der Suchleiste führt zu einer Fehlermeldung</t>
   </si>
   <si>
-    <t>Fehlgeschlagen --&gt; Erste Bewertung bei Rezept wir nicht direkt aktualisiert, erst bei Neuladen der Seite</t>
+    <t>Fehlgeschlagen --&gt; Erste Bewertung manchmal nicht direkt sichtbar, nur nach Neuladen der Seite</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A237467-03C5-4842-A628-3868DA80565E}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Qualitätskriterien.xlsx
+++ b/Qualitätskriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josefine\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scsch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B2767F-39A3-4E2B-8BB6-2FA63E081ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055742FB-5B5B-4290-9FBD-375BA3E07291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="51840" windowHeight="21000" xr2:uid="{962F5EA2-457F-4DB1-BBA0-B266D560A518}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>QNr</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Anlage 3: Qualitätskriterien - Tabelle</t>
+  </si>
+  <si>
+    <t>Es soll eine Ungestörte Nutzererfahrung geben.</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -832,9 +835,11 @@
       <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>38</v>
@@ -842,8 +847,12 @@
       <c r="I3" s="8">
         <v>45590</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="8">
+        <v>45594</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
